--- a/DOM_Banner/output/dept_banner/Puneet Shroff_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Puneet Shroff_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,213 +360,119 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Eugene H. Chang, Nirushan Harushikesh Narendran, Shireen Samargandy, Nora Odisho, Puneet Shroff, Tara F. Carr, Christopher H. Le</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379157514</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>A pilot prospective longitudinal study comparing dupilumab to surgery in CRSwNP</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5047622778", "https://openalex.org/A5073961466", "https://openalex.org/A5050034535", "https://openalex.org/A5076951062", "https://openalex.org/A5026056645", "https://openalex.org/A5066690347", "https://openalex.org/A5014710204"), au_display_name = c("Eugene H. Chang", "Nirushan Harushikesh Narendran", "Shireen Samargandy", "Nora Odisho", "Puneet Shroff", "Tara F. Carr", "Christopher H. Le"), au_orcid = c("https://orcid.org/0000-0002-9870-8220", NA, "https://orcid.org/0000-0001-5527-6280", 
-NA, NA, "https://orcid.org/0000-0002-6397-5396", "https://orcid.org/0000-0002-7580-3030"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("The University of Arizona College of Medicine Tucson", "The University of Arizona College of Medicine Tucson", "The University of Arizona College of Medicine Tucson", "The University of Arizona College of Medicine Tucson", "The University of Arizona College of Medicine Tucson", "The University of Arizona College of Medicine Tucson", 
-"The University of Arizona College of Medicine Tucson"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", 
-"University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Background: To date, there have not been any direct comparative studies assessing clinical outcomes in CRSwNP between biologic and surgical therapies. Objective: To directly compare the effect of dupilumab to FESS using subjective and objective outcomes of CRSwNP patients in a prospective longitudinal study. Methods: We prospectively enrolled 20 CRSwNP patients and counseled them on both biologic and surgical options. Patients were able to decide on either therapy, and data collected at baseline and 3-, 6-, 9-, and 12-months with subjective outcomes including the nasal congestion score (NCS) and SNOT-22 questionnaires, and objectively by degree of smell (UPSIT-40) and nasal polyp score (NPS). Results: All subjects met criteria for either biologic therapy or surgery, with NPS &amp;gt;5, Lund-Mackay score (LMK-CT)&amp;gt;16, SNOT-22&amp;gt;54, and were graded as anosmic/hyposmic. There were no significant differences in age, sex, comorbid asthma/Aspirin Exacerbated Respiratory Disease, or prior FESS between groups. Both dupilumab and FESS significantly improved outcomes by one year in patients with severe CRSwNP when compared to baseline. At one-year, patients on dupilumab had greater improvement in NCS, UPSIT and asthma control relative to one year post FESS. In a subgroup of patients with a history of prior sinus surgery and asthma, dupilumab had lower polyp recurrence rate compared to one year post FESS. Conclusions: Both dupilumab and FESS can significantly improve outcomes by one year in CRSwNP patients. However, in those with a history of asthma and prior surgery, dupilumab is more effective in reducing polyp recurrence and improving sinonasal outcomes than FESS.</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>Authorea (Authorea)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Authorea (Authorea)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306402105</t>
+          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -576,336 +482,124 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.authorea.com/doi/pdf/10.22541/au.168568030.09343015</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.authorea.com/doi/pdf/10.22541/au.168568030.09343015</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4379157514</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4379157514", doi = "https://doi.org/10.22541/au.168568030.09343015/v1")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4200102219", "https://openalex.org/W2984327747", "https://openalex.org/W4200464985", "https://openalex.org/W4391443779", "https://openalex.org/W4225314469", "https://openalex.org/W3100536988", "https://openalex.org/W4380869559", "https://openalex.org/W3214408286", "https://openalex.org/W2078184606", "https://openalex.org/W2462605889")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Maria Sans-Fuentes, Lidia Azurdia Sierra, Nelly Kazan Sancho Cruz, Victoria Rubio, Karen Lutrick, Kathryn Hamm, Elizabeth Connick, Puneet Shroff, Dean Billheimer, Ronald B. Sorensen, Alicia Dinsmore, Wendy Wolfersteig, Stephanie L. Ayers, Janko Nikolich‐Žugich, Chyke A. Doubeni, Jon C. Tilburt, Cecilia Rosales, Francisco Moreno, Daniel Derksen, Sabrina Oesterle, Samantha Sabo, Sairam Parthasarathy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388518244</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5013612652", "https://openalex.org/A5028500478", "https://openalex.org/A5075154326", "https://openalex.org/A5050441241", "https://openalex.org/A5089314021", "https://openalex.org/A5078365841", "https://openalex.org/A5075442903", "https://openalex.org/A5026056645", "https://openalex.org/A5069707022", "https://openalex.org/A5072194828", "https://openalex.org/A5069686565", "https://openalex.org/A5036865687", "https://openalex.org/A5047179058", "https://openalex.org/A5036273449", 
-"https://openalex.org/A5004784949", "https://openalex.org/A5043501929", "https://openalex.org/A5023329301", "https://openalex.org/A5003092221", "https://openalex.org/A5085664136", "https://openalex.org/A5070479384", "https://openalex.org/A5023703874", "https://openalex.org/A5020095687"), au_display_name = c("Maria Sans-Fuentes", "Lidia Azurdia Sierra", "Nelly Kazan Sancho Cruz", "Victoria Rubio", "Karen Lutrick", "Kathryn Hamm", "Elizabeth Connick", "Puneet Shroff", "Dean Billheimer", "Ronald B. Sorensen", 
-"Alicia Dinsmore", "Wendy Wolfersteig", "Stephanie L. Ayers", "Janko Nikolich‐Žugich", "Chyke A. Doubeni", "Jon C. Tilburt", "Cecilia Rosales", "Francisco Moreno", "Daniel Derksen", "Sabrina Oesterle", "Samantha Sabo", "Sairam Parthasarathy"), au_orcid = c(NA, NA, NA, NA, "https://orcid.org/0000-0003-3480-849X", NA, "https://orcid.org/0000-0002-0465-6248", NA, NA, NA, NA, "https://orcid.org/0000-0002-5451-6825", "https://orcid.org/0000-0002-6294-4379", "https://orcid.org/0000-0001-5830-5323", 
-NA, "https://orcid.org/0000-0001-6165-6415", "https://orcid.org/0000-0002-1576-9272", NA, "https://orcid.org/0000-0002-1954-4943", "https://orcid.org/0000-0002-2898-6145", "https://orcid.org/0000-0003-4509-9182", "https://orcid.org/0000-0002-1128-3005"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...", 
-"Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are..."
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", 
-"University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", 
-"US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports Maria Sans-Fuentes PhD, Lidia Azurdia Sierra MPH, Nina Santa Cruz MS, Victoria Rubio MS, Karen Lutrick PhD, Kathryn Hamm PhD, Elizabeth Connick MD, Puneet Shroff MD, Dean Billheimer PhD, Ronald Sorensen MSHA, MA, Alicia Dinsmore MPH, Wendy Wolfersteig PhD, Stephanie Ayers PhD, Janko Nikolich-Zugich MD, PhD, Chyke Doubeni MD, MPH, Jon Tilburt MD, Cecilia Rosales MD, Francisco Moreno MD, Daniel Derksen MD, Sabrina Oesterle PhD, Samantha Sabo DrPH, MPH, and Sairam Parthasarathy MD Affiliation Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are with the Southwest Interdisciplinary Research Center, Arizona State University, Phoenix. Ronald Sorensen and Alicia Dinsmore are with the Department of Family and Community Medicine, University of Arizona, Tucson. Janko Nikolich-Zugich is with the Department of Immunobiology, University of Arizona, Tucson. Chyke Doubeni and Jon Tilburt are with the Department of Family and Community Medicine, Mayo Clinic, Scottsdale, AZ. Francisco Moreno and Daniel Derksen are with the University of Arizona Health Sciences, Tucson. Samantha Sabo is with the Center for Health Equity Research, Northern Arizona University, Flagstaff. CopyRightCorrespondence should be sent to Sairam Parthasarathy, Professor of Medicine, University of Arizona, 1501 N Campbell Ave, AHSC Rm# 2346d, Tucson, AZ 85724 (e-mail: spartha1@arizona.edu). Reprints can be ordered at http://www.ajph.org by clicking the “Reprints” link. CONTRIBUTORS M. Sans-Fuentes and D. Billheimer completed the analyses. L. A. Sierra, N. Santa Cruz, V. Rubio, R. Sorensen, and A. Dinsmore helped disseminate recruitment materials and collected data. K. Lutrick, K. Hamm, E. Connick, P. Shroff, W. Wolfersteig, S. Ayers, J. Nikolich-Zugich, C. Doubeni, J. Tilburt, C. Rosales, F. Moreno, D. Derksen, S. Oesterle, S. Sabo, and S. Parthasarathy helped write the editorial after critically interpreting the results. C. Doubeni, S. Oesterle, S. Sabo, and S. Parthasarathy helped obtain funding. S. Parthasarathy conceptualized and supervised the study. All authors reviewed, edited, and approved the final draft. https://doi.org/10.2105/AJPH.2023.307484 Accepted: September 29, 2023 Published Online: November 09, 2023</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>American Journal of Public Health</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>American Journal of Public Health</t>
+          <t>American Public Health Association</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S168049282</t>
+          <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>American Public Health Association</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0090-0036</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>e1</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>e4</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388518244</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388518244", doi = "https://doi.org/10.2105/ajph.2023.307484", pmid = "https://pubmed.ncbi.nlm.nih.gov/37944076")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2105/ajph.2023.307484</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2084518431", "https://openalex.org/W3024193863", "https://openalex.org/W3126790872", "https://openalex.org/W3196142896", "https://openalex.org/W3199111535", "https://openalex.org/W3199384045", "https://openalex.org/W4200111969", "https://openalex.org/W4224219975", "https://openalex.org/W4283724611")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4236035384", "https://openalex.org/W2113257626", "https://openalex.org/W1970630452", "https://openalex.org/W2381483116", "https://openalex.org/W2348506863", "https://openalex.org/W2371917728", "https://openalex.org/W2007982614", "https://openalex.org/W2389579140", "https://openalex.org/W2512568326", "https://openalex.org/W2808021644")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Puneet Shroff_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Puneet Shroff_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson; The University of Arizona College of Medicine Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379157514</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A pilot prospective longitudinal study comparing dupilumab to surgery in CRSwNP</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Authorea (Authorea)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.22541/au.168568030.09343015/v1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...; Maria Sans-Fuentes, Elizabeth Connick, and Dean Billheimer are with BIO5 Institute, University of Arizona, Tucson. Lidia Azurdia Sierra, Nina Santa Cruz, Victoria Rubio, Puneet Shroff, and Sairam Parthasarathy are with the Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson. Karen Lutrick and Cecilia Rosales are with the Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson. Kathryn Hamm, Wendy Wolfersteig, Stephanie Ayers, and Sabrina Oesterle are...</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388518244</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Temporal Changes in Vaccine-Specific Willingness Across Race/Ethnicity Following Serious Adverse Event Reports</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Public Health</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Public Health Association</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37944076</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2105/ajph.2023.307484</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
